--- a/uploads/react_template.xlsx
+++ b/uploads/react_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maury\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A7D140-A09B-41D1-BB1F-5B8F233FFE7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,16 +237,16 @@
     <t>chart</t>
   </si>
   <si>
-    <t>column</t>
-  </si>
-  <si>
     <t>materialUI</t>
+  </si>
+  <si>
+    <t>row</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,11 +560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,13 +643,13 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
